--- a/Aufgaben.xlsx
+++ b/Aufgaben.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pkurz\bwSyncShare\Business Analytics Shiny Web App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36DE576C-FAED-40B6-9B8C-82044821D98D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB6E556-7AC1-4F3C-B352-1C37AB6BF88C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7D34A307-F4CE-447D-BF89-7E700D204897}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{7D34A307-F4CE-447D-BF89-7E700D204897}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="To Do's" sheetId="1" r:id="rId1"/>
+    <sheet name="Dashboard" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="59">
   <si>
     <t>Aufgabe</t>
   </si>
@@ -45,9 +46,6 @@
     <t>Termin mit Ralf</t>
   </si>
   <si>
-    <t>21.12.2021</t>
-  </si>
-  <si>
     <t>Abgabedatum</t>
   </si>
   <si>
@@ -84,9 +82,6 @@
     <t>Text hinzufügen, gekürzt</t>
   </si>
   <si>
-    <t>Button fixieren</t>
-  </si>
-  <si>
     <t>Struktur &amp; Inhalt definieren</t>
   </si>
   <si>
@@ -169,6 +164,54 @@
   </si>
   <si>
     <t>P</t>
+  </si>
+  <si>
+    <t>21.12.2021, 21:30 Uhr</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>KC HPP</t>
+  </si>
+  <si>
+    <t>Preisverteilung</t>
+  </si>
+  <si>
+    <t>Höchster+Niedrigster Preis</t>
+  </si>
+  <si>
+    <t>Anzahl der Häuser</t>
+  </si>
+  <si>
+    <t>Regionen (mit Preisniveau)</t>
+  </si>
+  <si>
+    <t>Durchschnittliche Wertentwicklung</t>
+  </si>
+  <si>
+    <t>Headfunktion: Max, min, median</t>
+  </si>
+  <si>
+    <t>Durchschnittlicher QM-Preis, Haus-Preis, Grundstücksfläche</t>
+  </si>
+  <si>
+    <t>KEINE ÜBERSCHRIFT</t>
+  </si>
+  <si>
+    <t>nur Widgets mit Headline</t>
+  </si>
+  <si>
+    <t>ggf. Controlpanels für Usereingaben</t>
+  </si>
+  <si>
+    <t>Done?</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Button fixieren / in Textfeld</t>
   </si>
 </sst>
 </file>
@@ -199,15 +242,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -215,11 +270,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -245,6 +380,26 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -559,253 +714,302 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FC3D34E-A6B6-4FBE-BC6A-DC5AF01B4B7F}">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="6"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="D8" s="24"/>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D9" s="24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="24"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="24"/>
+    </row>
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="24"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="24"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="24"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="D15" s="24"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
         <v>37</v>
       </c>
-      <c r="C8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="D16" s="24"/>
+    </row>
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="B17" s="10">
         <v>44534</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="24"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="24"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="24"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="24"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="24"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="24"/>
+    </row>
+    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="D25" s="24"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="24"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="24"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="D28" s="24"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="24"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="24"/>
+    </row>
+    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="24"/>
+    </row>
+    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="24"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="D33" s="24"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="D34" s="24"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="D35" s="24"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" t="s">
         <v>42</v>
       </c>
-      <c r="C22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="D36" s="24"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="24"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" s="24"/>
+    </row>
+    <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B36" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="D39" s="24"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+      <c r="D40" s="24"/>
+    </row>
+    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="D41" s="24"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="D42" s="24"/>
+    </row>
+    <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="D43" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -814,4 +1018,416 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E17129C-FD01-402E-891D-548B953F9B6A}">
+  <dimension ref="B1:N30"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B2" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="13"/>
+      <c r="N2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="14"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="16"/>
+      <c r="N3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="19"/>
+      <c r="N4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="19"/>
+      <c r="N5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="19"/>
+      <c r="N6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="19"/>
+      <c r="N7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="19"/>
+      <c r="N8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="19"/>
+      <c r="N9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="19"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="19"/>
+      <c r="N11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="19"/>
+      <c r="N12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="19"/>
+      <c r="N13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="19"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="19"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="19"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="19"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="17"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="19"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="17"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="19"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="17"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="19"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="19"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="19"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="19"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="19"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="17"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="19"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="17"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="19"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="17"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="19"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="17"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="19"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="17"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="19"/>
+    </row>
+    <row r="30" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="21"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:B3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>